--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sem2\VVSS\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF6CB9E-0B46-4DAC-8E04-F3859D7E6F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="3945" yWindow="2475" windowWidth="23205" windowHeight="11835" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,13 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +123,152 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>237/2</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizzar-ul notifica cand pizza este gata, dar chelnerul nu este notificat prin GUI </t>
+  </si>
+  <si>
+    <t>Masa poate fi eliberata la cerere dar nu este constransa de plata</t>
+  </si>
+  <si>
+    <t>Bucataria se poate inchide dar nu exista constrangere ca nu mai exista clienti</t>
+  </si>
+  <si>
+    <t>Restaurantul se poate inchide dar nu exista constrangere ca nu mai exista clienti sau ca bucataria este inchisa</t>
+  </si>
+  <si>
+    <t>Comanda nu este preluata de maestrul pizzar ci de chelner</t>
+  </si>
+  <si>
+    <t>User ul probabil vrea incasarile pe ultima deschidere nu pe toate</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>Nu este specificat sistemul de operare</t>
+  </si>
+  <si>
+    <t>Nu sunt structurate pe functionalitatile</t>
+  </si>
+  <si>
+    <t>Tiutiu Madalin</t>
+  </si>
+  <si>
+    <t>Zaicescu Andrei</t>
+  </si>
+  <si>
+    <t>Surubariu Razvan</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>idk</t>
+  </si>
+  <si>
+    <t>Nu sunt tratate erorile, metodele care arunca unchecked exceptions o sa crape aplicatia</t>
+  </si>
+  <si>
+    <t>Descrierea lipseste dar este destul de clar ce face clasa doar din nume</t>
+  </si>
+  <si>
+    <t>Descrierea lipste</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Nu chiar deoarece sunt multe obiecte create care nu sunt folosite</t>
+  </si>
+  <si>
+    <t>MainGUIController ar trebui sa aibe o pereche MainGui</t>
+  </si>
+  <si>
+    <t>idk, generic repository dar nu e design pattern, toate GUI urile si GUIController ele ar putea sa implementeze o interfata</t>
+  </si>
+  <si>
+    <t>obiecte declarate la nivel de clasa chiar daca sunt folosite doar intr-o singura metoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obiectele de clasa sunt initializate </t>
+  </si>
+  <si>
+    <t>KitchenGui are o metoda care arata ca un constructor care ar fi putut sa fie doar un show(), lipsesc constructori pentru clasele care au nevoie de ei, ar fi putut sa fie creata o claa MainGUI care sa encapsuleze codul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +331,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,76 +440,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -374,6 +525,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +609,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +661,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,46 +853,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -713,57 +902,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -777,96 +978,156 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
+        <f>B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -875,7 +1136,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -884,7 +1145,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -893,7 +1154,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -902,7 +1163,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -911,7 +1172,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -920,15 +1181,17 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -945,45 +1208,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -992,57 +1256,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,167 +1332,241 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1227,52 +1577,54 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1281,57 +1633,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1353,7 +1717,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1362,7 +1726,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1371,7 +1735,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1380,7 +1744,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1389,7 +1753,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1398,7 +1762,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +1771,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +1780,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,25 +1789,29 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +1820,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1829,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1838,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1847,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1856,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1865,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1874,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1883,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1892,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,10 +1901,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1558,47 +1926,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1607,46 +1976,58 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +2044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1672,7 +2053,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1682,7 +2063,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1692,7 +2073,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1702,7 +2083,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1712,7 +2093,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1722,7 +2103,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +2113,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +2123,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +2133,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +2143,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +2153,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +2163,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +2173,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +2183,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +2193,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +2203,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +2213,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +2223,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +2233,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +2243,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,15 +2253,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sem2\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF6CB9E-0B46-4DAC-8E04-F3859D7E6F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FFF74-7FA6-4596-8218-6546CD173CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2475" windowWidth="23205" windowHeight="11835" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17115" yWindow="2625" windowWidth="23205" windowHeight="13170" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -239,23 +238,150 @@
     <t>MainGUIController ar trebui sa aibe o pereche MainGui</t>
   </si>
   <si>
-    <t>idk, generic repository dar nu e design pattern, toate GUI urile si GUIController ele ar putea sa implementeze o interfata</t>
-  </si>
-  <si>
-    <t>obiecte declarate la nivel de clasa chiar daca sunt folosite doar intr-o singura metoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obiectele de clasa sunt initializate </t>
-  </si>
-  <si>
-    <t>KitchenGui are o metoda care arata ca un constructor care ar fi putut sa fie doar un show(), lipsesc constructori pentru clasele care au nevoie de ei, ar fi putut sa fie creata o claa MainGUI care sa encapsuleze codul</t>
+    <t>KitchenGui are o metoda care arata ca un constructor care ar fi putut sa fie doar un show(), lipsesc constructori pentru clasele care au nevoie de ei, ar fi putut sa fie creata o clasa MainGUI care sa encapsuleze codul</t>
+  </si>
+  <si>
+    <t>Nu este specificat tipul generic folosit de clase</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>OrdersGUIController</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, KitchenGUIController</t>
+  </si>
+  <si>
+    <t>instanta de calendar e de cand a fost deschisa fereastra nu de cand se apasa butonul</t>
+  </si>
+  <si>
+    <t>Nu este specificat tipul generic folosit de clase, variabile declarate global cand sunt initializate si folosite intr-o singura metoda</t>
+  </si>
+  <si>
+    <t>exista procesare inutila de la input ul utilizatorului</t>
+  </si>
+  <si>
+    <t>nu exista</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>orderTable, tablePrice</t>
+  </si>
+  <si>
+    <t>numele de variabile sunt confuze si nu reprezinta modul in care sunt folosite</t>
+  </si>
+  <si>
+    <t>un optional care nu are apelata metoda de ifPresent</t>
+  </si>
+  <si>
+    <t>generic repository, dar nu e design pattern, toate GUI urile si GUIControllerele ar putea sa implementeze o interfata, Observer pattern pentru kitchenGUI in loc de sleep</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public OrdersGUIController() {
+ }</t>
+  </si>
+  <si>
+    <t>Local variables should not shadow class fields</t>
+  </si>
+  <si>
+    <t>KitchenGUIController</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>orderList</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>Cash, Card</t>
+  </si>
+  <si>
+    <t>CASH, CARD</t>
+  </si>
+  <si>
+    <t>Resources should be closed</t>
+  </si>
+  <si>
+    <t>MenuRepository</t>
+  </si>
+  <si>
+    <t>try {
+   br = new BufferedReader(new FileReader(file));
+   String line = null;
+   while((line = br.readLine()) != null) {
+    MenuDataModel menuItem = getMenuItem(line);
+    listMenu.add(menuItem);
+   }
+   br.close();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  try(BufferedReader br = new BufferedReader(new FileReader(file))) {
+   String line = null;
+   while((line = br.readLine()) != null) {
+    MenuDataModel menuItem = getMenuItem(line);
+    listMenu.add(menuItem);
+   }</t>
+  </si>
+  <si>
+    <t>String literals should not be duplicated</t>
+  </si>
+  <si>
+    <t>PaymentAlert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System.out.println("--------------------------"); </t>
+  </si>
+  <si>
+    <t>System.out.println(newLineSeparator);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +464,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -440,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,6 +649,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,8 +1351,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1480,7 @@
         <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1406,7 +1543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1418,7 +1555,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1590,8 +1727,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,8 +1736,8 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.85546875" style="6"/>
     <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
@@ -1709,123 +1846,191 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
@@ -1872,7 +2077,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
@@ -1909,7 +2114,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1920,6 +2127,7 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1932,8 +2140,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +2149,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="6"/>
@@ -2044,211 +2252,249 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+    <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sem2\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FFF74-7FA6-4596-8218-6546CD173CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A691537-34E6-4A95-A9ED-70CD60819C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17115" yWindow="2625" windowWidth="23205" windowHeight="13170" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="6660" windowWidth="23205" windowHeight="13170" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">System.out.println("--------------------------"); </t>
   </si>
   <si>
-    <t>System.out.println(newLineSeparator);</t>
+    <t>System.out.println(NEW_LINE_SEPARATOR);</t>
   </si>
 </sst>
 </file>
@@ -608,6 +608,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -649,9 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,19 +1018,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1054,10 +1054,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1072,10 +1072,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1091,15 +1091,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1372,19 +1372,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1408,10 +1408,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1426,10 +1426,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1445,15 +1445,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1749,19 +1749,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1785,10 +1785,10 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1803,10 +1803,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1822,15 +1822,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1846,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="23" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2006,11 +2006,11 @@
       <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2140,8 +2140,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,19 +2163,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -2199,8 +2199,8 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -2215,8 +2215,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2232,8 +2232,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2503,11 +2503,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sem2\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A691537-34E6-4A95-A9ED-70CD60819C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8F925-1B20-4C93-9CD5-B098717C629B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="6660" windowWidth="23205" windowHeight="13170" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="1335" windowWidth="23205" windowHeight="13170" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="108">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -127,9 +127,6 @@
     <t>237/2</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
     <t>R02</t>
   </si>
   <si>
@@ -146,18 +143,6 @@
   </si>
   <si>
     <t>R07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizzar-ul notifica cand pizza este gata, dar chelnerul nu este notificat prin GUI </t>
-  </si>
-  <si>
-    <t>Masa poate fi eliberata la cerere dar nu este constransa de plata</t>
-  </si>
-  <si>
-    <t>Bucataria se poate inchide dar nu exista constrangere ca nu mai exista clienti</t>
-  </si>
-  <si>
-    <t>Restaurantul se poate inchide dar nu exista constrangere ca nu mai exista clienti sau ca bucataria este inchisa</t>
   </si>
   <si>
     <t>Comanda nu este preluata de maestrul pizzar ci de chelner</t>
@@ -996,8 +981,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>33</v>
@@ -1062,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>33</v>
@@ -1080,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>33</v>
@@ -1115,64 +1100,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1180,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1195,13 +1156,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1210,13 +1171,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1225,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1240,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1255,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1398,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>33</v>
@@ -1416,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>33</v>
@@ -1434,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>33</v>
@@ -1474,13 +1435,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1489,13 +1450,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1504,13 +1465,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1519,13 +1480,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1534,13 +1495,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1549,13 +1510,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1564,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1579,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1594,13 +1555,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1609,13 +1570,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1625,7 +1586,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1636,7 +1597,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1647,7 +1608,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1618,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1667,7 +1628,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1678,7 +1639,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1689,7 +1650,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1775,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>33</v>
@@ -1793,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>33</v>
@@ -1811,7 +1772,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>33</v>
@@ -1851,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1866,13 +1827,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,13 +1842,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1896,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1911,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1926,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1941,13 +1902,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1956,13 +1917,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1971,13 +1932,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1986,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2001,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -2016,13 +1977,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -2140,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>33</v>
@@ -2205,7 +2166,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>33</v>
@@ -2221,7 +2182,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>33</v>
@@ -2257,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -2273,16 +2234,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,16 +2252,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2309,16 +2270,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="315" x14ac:dyDescent="0.25">
@@ -2327,16 +2288,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
